--- a/input_data/admin_data/CHL/gpinter_CHL_2010.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2010.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="235">
   <si>
     <t>year</t>
   </si>
@@ -204,6 +204,45 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -393,10 +432,88 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -644,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J76"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -652,31 +769,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="E1" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>231</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="I1" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
       <c r="J1" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2">
@@ -684,31 +801,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="D2">
-        <v>1159140.1563719299</v>
+        <v>2246976.0997764599</v>
       </c>
       <c r="E2">
-        <v>0.65000000000000002</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F2">
-        <v>54515.541090273902</v>
+        <v>7388.9015384814902</v>
       </c>
       <c r="G2">
-        <v>0.99977069604262603</v>
+        <v>0.99999748006464295</v>
       </c>
       <c r="H2">
-        <v>3311069.6027055001</v>
+        <v>4681188.41154572</v>
       </c>
       <c r="I2">
-        <v>84027.248010417403</v>
+        <v>32077.596335727099</v>
       </c>
       <c r="J2">
-        <v>60.736251286997401</v>
+        <v>633.54321168931904</v>
       </c>
     </row>
     <row r="3">
@@ -716,29 +833,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.66000000000000003</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F3">
-        <v>114351.829909141</v>
+        <v>57278.8507716854</v>
       </c>
       <c r="G3">
-        <v>0.99904578587927295</v>
+        <v>0.99985472110811002</v>
       </c>
       <c r="H3">
-        <v>3405982.6131377099</v>
+        <v>4780105.6629331596</v>
       </c>
       <c r="I3">
-        <v>146357.459727179</v>
+        <v>83528.849454395706</v>
       </c>
       <c r="J3">
-        <v>29.785116826236699</v>
+        <v>83.453239695516103</v>
       </c>
     </row>
     <row r="4">
@@ -746,29 +863,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.67000000000000004</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F4">
-        <v>179231.871510486</v>
+        <v>110315.182103821</v>
       </c>
       <c r="G4">
-        <v>0.997783147716643</v>
+        <v>0.99948298217656295</v>
       </c>
       <c r="H4">
-        <v>3504759.1329380302</v>
+        <v>4882205.1588783497</v>
       </c>
       <c r="I4">
-        <v>213902.19721887799</v>
+        <v>138198.547648265</v>
       </c>
       <c r="J4">
-        <v>19.554329837665001</v>
+        <v>44.256874400874203</v>
       </c>
     </row>
     <row r="5">
@@ -776,29 +893,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.68000000000000005</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F5">
-        <v>249500.266859155</v>
+        <v>166642.75657944</v>
       </c>
       <c r="G5">
-        <v>0.99593779540059202</v>
+        <v>0.998867939819583</v>
       </c>
       <c r="H5">
-        <v>3607598.41217926</v>
+        <v>4987627.5280168001</v>
       </c>
       <c r="I5">
-        <v>287015.228557394</v>
+        <v>196233.730013803</v>
       </c>
       <c r="J5">
-        <v>14.45929680795</v>
+        <v>29.930058950022001</v>
       </c>
     </row>
     <row r="6">
@@ -806,29 +923,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F6">
-        <v>325519.94441647298</v>
+        <v>226410.76224699299</v>
       </c>
       <c r="G6">
-        <v>0.99346169078994895</v>
+        <v>0.99799461620019403</v>
       </c>
       <c r="H6">
-        <v>3714713.9987476999</v>
+        <v>5096522.8416077802</v>
       </c>
       <c r="I6">
-        <v>366068.580977395</v>
+        <v>257785.665563499</v>
       </c>
       <c r="J6">
-        <v>11.4116325664982</v>
+        <v>22.510073244874999</v>
       </c>
     </row>
     <row r="7">
@@ -836,29 +953,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.69999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F7">
-        <v>407671.97267518501</v>
+        <v>289772.50991506199</v>
       </c>
       <c r="G7">
-        <v>0.99030358623317905</v>
+        <v>0.99684736026992804</v>
       </c>
       <c r="H7">
-        <v>3826335.5126733799</v>
+        <v>5209051.6131436899</v>
       </c>
       <c r="I7">
-        <v>451452.18707166699</v>
+        <v>323009.61732817802</v>
       </c>
       <c r="J7">
-        <v>9.3858194066287499</v>
+        <v>17.9763484626978</v>
       </c>
     </row>
     <row r="8">
@@ -866,29 +983,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.70999999999999996</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F8">
-        <v>496355.02545861201</v>
+        <v>356885.16411759099</v>
       </c>
       <c r="G8">
-        <v>0.98640887009734302</v>
+        <v>0.99540982999374805</v>
       </c>
       <c r="H8">
-        <v>3942710.79976309</v>
+        <v>5325385.9463773901</v>
       </c>
       <c r="I8">
-        <v>543573.13684775203</v>
+        <v>392064.53705756401</v>
       </c>
       <c r="J8">
-        <v>7.9433280566066404</v>
+        <v>14.921847366630001</v>
       </c>
     </row>
     <row r="9">
@@ -896,29 +1013,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.71999999999999997</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F9">
-        <v>591984.40282741201</v>
+        <v>427909.39991450502</v>
       </c>
       <c r="G9">
-        <v>0.98171941874963797</v>
+        <v>0.99366497593367797</v>
       </c>
       <c r="H9">
-        <v>4064108.5734386402</v>
+        <v>5445710.8587998301</v>
       </c>
       <c r="I9">
-        <v>642854.42779501295</v>
+        <v>465112.68072241597</v>
       </c>
       <c r="J9">
-        <v>6.8652291412202899</v>
+        <v>12.7263174398316</v>
       </c>
     </row>
     <row r="10">
@@ -926,29 +1043,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.72999999999999998</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F10">
-        <v>694990.48837321601</v>
+        <v>503008.97532637703</v>
       </c>
       <c r="G10">
-        <v>0.97617345932220201</v>
+        <v>0.99159502654361198</v>
       </c>
       <c r="H10">
-        <v>4190821.6899439599</v>
+        <v>5570225.8132517599</v>
       </c>
       <c r="I10">
-        <v>749733.08091426303</v>
+        <v>542319.134233132</v>
       </c>
       <c r="J10">
-        <v>6.0300417920157896</v>
+        <v>11.073809984479</v>
       </c>
     </row>
     <row r="11">
@@ -956,29 +1073,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.73999999999999999</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F11">
-        <v>805816.49726108403</v>
+        <v>582350.20846441598</v>
       </c>
       <c r="G11">
-        <v>0.969705448730102</v>
+        <v>0.98918147557488101</v>
       </c>
       <c r="H11">
-        <v>4323171.2518297201</v>
+        <v>5699146.4973291596</v>
       </c>
       <c r="I11">
-        <v>864657.46185561304</v>
+        <v>623851.23814191797</v>
       </c>
       <c r="J11">
-        <v>5.3649574891105898</v>
+        <v>9.7864591005420891</v>
       </c>
     </row>
     <row r="12">
@@ -986,29 +1103,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="F12">
-        <v>924915.33809823601</v>
+        <v>666101.347865041</v>
       </c>
       <c r="G12">
-        <v>0.96224597580008198</v>
+        <v>0.98640507204213301</v>
       </c>
       <c r="H12">
-        <v>4461511.8034286797</v>
+        <v>5832706.8988867197</v>
       </c>
       <c r="I12">
-        <v>988083.61245228106</v>
+        <v>709877.89970612002</v>
       </c>
       <c r="J12">
-        <v>4.8236974992783797</v>
+        <v>8.7564856572974303</v>
       </c>
     </row>
     <row r="13">
@@ -1016,29 +1133,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.76000000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="F13">
-        <v>1052745.37526726</v>
+        <v>754431.82431520906</v>
       </c>
       <c r="G13">
-        <v>0.95372169504748505</v>
+        <v>0.98324581325083205</v>
       </c>
       <c r="H13">
-        <v>4606237.9780526999</v>
+        <v>5971161.7367024096</v>
       </c>
       <c r="I13">
-        <v>1120470.3589955401</v>
+        <v>800568.78066426795</v>
       </c>
       <c r="J13">
-        <v>4.3754530642163196</v>
+        <v>7.9147797643907598</v>
       </c>
     </row>
     <row r="14">
@@ -1046,29 +1163,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.77000000000000002</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F14">
-        <v>1189764.83701901</v>
+        <v>847511.37277468899</v>
       </c>
       <c r="G14">
-        <v>0.94405530265450199</v>
+        <v>0.97968294143949497</v>
       </c>
       <c r="H14">
-        <v>4757793.0919247502</v>
+        <v>6114789.3188145896</v>
       </c>
       <c r="I14">
-        <v>1262272.92029294</v>
+        <v>896093.34988878097</v>
       </c>
       <c r="J14">
-        <v>3.9989357088797002</v>
+        <v>7.2149938222011398</v>
       </c>
     </row>
     <row r="15">
@@ -1076,29 +1193,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.78000000000000003</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F15">
-        <v>1336424.5697621601</v>
+        <v>945509.01418339403</v>
       </c>
       <c r="G15">
-        <v>0.93316556759223102</v>
+        <v>0.97569494463802497</v>
       </c>
       <c r="H15">
-        <v>4916680.3724534698</v>
+        <v>6263894.9179267501</v>
       </c>
       <c r="I15">
-        <v>1413934.69334896</v>
+        <v>996619.79175997002</v>
       </c>
       <c r="J15">
-        <v>3.6789808296688702</v>
+        <v>6.6248918032121296</v>
       </c>
     </row>
     <row r="16">
@@ -1106,29 +1223,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.79000000000000004</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F16">
-        <v>1493158.79426782</v>
+        <v>1048591.8894591101</v>
       </c>
       <c r="G16">
-        <v>0.92096743360837796</v>
+        <v>0.97125956238425204</v>
       </c>
       <c r="H16">
-        <v>5083477.7857441604</v>
+        <v>6418814.7745787203</v>
       </c>
       <c r="I16">
-        <v>1575876.8529131501</v>
+        <v>1102313.7647021899</v>
       </c>
       <c r="J16">
-        <v>3.4045125041351598</v>
+        <v>6.1213660329660797</v>
       </c>
     </row>
     <row r="17">
@@ -1136,29 +1253,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.80000000000000004</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F17">
-        <v>1660373.4830062501</v>
+        <v>1156923.9425464901</v>
       </c>
       <c r="G17">
-        <v>0.90737221094052001</v>
+        <v>0.96635379696551105</v>
       </c>
       <c r="H17">
-        <v>5258857.8323857104</v>
+        <v>6579920.8657871</v>
       </c>
       <c r="I17">
-        <v>1748485.3751852501</v>
+        <v>1213337.01020502</v>
       </c>
       <c r="J17">
-        <v>3.16727404178011</v>
+        <v>5.6874273440171796</v>
       </c>
     </row>
     <row r="18">
@@ -1166,29 +1283,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.81000000000000005</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F18">
-        <v>1838431.9661858899</v>
+        <v>1270664.4570192399</v>
       </c>
       <c r="G18">
-        <v>0.89228787997697301</v>
+        <v>0.96095393085066605</v>
       </c>
       <c r="H18">
-        <v>5443614.2775015198</v>
+        <v>6747626.6112740301</v>
       </c>
       <c r="I18">
-        <v>1932095.1095727901</v>
+        <v>1329845.8225234901</v>
       </c>
       <c r="J18">
-        <v>2.9610093697375901</v>
+        <v>5.3103134930702396</v>
       </c>
     </row>
     <row r="19">
@@ -1196,29 +1313,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81999999999999995</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F19">
-        <v>2027637.4205420299</v>
+        <v>1389966.4630303499</v>
       </c>
       <c r="G19">
-        <v>0.87561953233193701</v>
+        <v>0.95503555093262504</v>
       </c>
       <c r="H19">
-        <v>5638698.6757197902</v>
+        <v>6922393.7334917998</v>
       </c>
       <c r="I19">
-        <v>2126970.6233800598</v>
+        <v>1451989.4047926301</v>
       </c>
       <c r="J19">
-        <v>2.7809206017772401</v>
+        <v>4.9802595369098901</v>
       </c>
     </row>
     <row r="20">
@@ -1226,29 +1343,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.82999999999999996</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F20">
-        <v>2228212.0655068401</v>
+        <v>1514975.05070473</v>
       </c>
       <c r="G20">
-        <v>0.85726997717514397</v>
+        <v>0.94857358008684201</v>
       </c>
       <c r="H20">
-        <v>5845270.9140927102</v>
+        <v>7104740.5444484297</v>
       </c>
       <c r="I20">
-        <v>2333283.8276085299</v>
+        <v>1579908.1615140301</v>
       </c>
       <c r="J20">
-        <v>2.6233009885273799</v>
+        <v>4.68967494952705</v>
       </c>
     </row>
     <row r="21">
@@ -1256,29 +1373,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.83999999999999997</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F21">
-        <v>2440273.3175646202</v>
+        <v>1645825.6559388</v>
       </c>
       <c r="G21">
-        <v>0.83714054058559795</v>
+        <v>0.94154231632898</v>
       </c>
       <c r="H21">
-        <v>6064770.1069979696</v>
+        <v>7295252.0059289299</v>
       </c>
       <c r="I21">
-        <v>2551089.0481700399</v>
+        <v>1713732.0146902399</v>
       </c>
       <c r="J21">
-        <v>2.4852831292892099</v>
+        <v>4.4325788576722802</v>
       </c>
     </row>
     <row r="22">
@@ -1286,29 +1403,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.84999999999999998</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F22">
-        <v>2663808.10118197</v>
+        <v>1782642.43045327</v>
       </c>
       <c r="G22">
-        <v>0.81513207996807602</v>
+        <v>0.933915479466493</v>
       </c>
       <c r="H22">
-        <v>6299015.5109198298</v>
+        <v>7494592.0056160297</v>
       </c>
       <c r="I22">
-        <v>2780297.6256182999</v>
+        <v>1853578.88808859</v>
       </c>
       <c r="J22">
-        <v>2.3646656484470001</v>
+        <v>4.2042037581874503</v>
       </c>
     </row>
     <row r="23">
@@ -1316,29 +1433,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.85999999999999999</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F23">
-        <v>2898648.53325433</v>
+        <v>1925536.87821439</v>
       </c>
       <c r="G23">
-        <v>0.79114621759988302</v>
+        <v>0.92566626449587996</v>
       </c>
       <c r="H23">
-        <v>6550352.5027270904</v>
+        <v>7703518.4173763003</v>
       </c>
       <c r="I23">
-        <v>3020657.1267686002</v>
+        <v>1999553.59179165</v>
       </c>
       <c r="J23">
-        <v>2.2597953589678501</v>
+        <v>4.0007119596275897</v>
       </c>
     </row>
     <row r="24">
@@ -1346,29 +1463,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F24">
-        <v>3144456.4574432601</v>
+        <v>2074607.04802584</v>
       </c>
       <c r="G24">
-        <v>0.76508675352072297</v>
+        <v>0.91676739996416301</v>
       </c>
       <c r="H24">
-        <v>6821867.5316469697</v>
+        <v>7922901.6798987901</v>
       </c>
       <c r="I24">
-        <v>3271746.6114072101</v>
+        <v>2151747.4736591</v>
       </c>
       <c r="J24">
-        <v>2.1694902200025301</v>
+        <v>3.8189890887713198</v>
       </c>
     </row>
     <row r="25">
@@ -1376,29 +1493,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F25">
-        <v>3400733.3873555702</v>
+        <v>2229937.7377002798</v>
       </c>
       <c r="G25">
-        <v>0.73686111925706599</v>
+        <v>0.90719120788150898</v>
       </c>
       <c r="H25">
-        <v>7117710.9416669495</v>
+        <v>8153747.8481483804</v>
       </c>
       <c r="I25">
-        <v>3533013.1359807299</v>
+        <v>2310239.4118530401</v>
       </c>
       <c r="J25">
-        <v>2.0929929315046101</v>
+        <v>3.6564912599565602</v>
       </c>
     </row>
     <row r="26">
@@ -1406,29 +1523,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.89000000000000001</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F26">
-        <v>3666892.2743019001</v>
+        <v>2391602.42140709</v>
       </c>
       <c r="G26">
-        <v>0.70638151662610504</v>
+        <v>0.89690965921669297</v>
       </c>
       <c r="H26">
-        <v>7443592.5603657002</v>
+        <v>8397227.3663273491</v>
       </c>
       <c r="I26">
-        <v>3803905.3232132201</v>
+        <v>2475099.0448921602</v>
       </c>
       <c r="J26">
-        <v>2.0299457970258499</v>
+        <v>3.51113014904328</v>
       </c>
     </row>
     <row r="27">
@@ -1436,29 +1553,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.90000000000000002</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F27">
-        <v>3942472.5761490702</v>
+        <v>2559668.0112851802</v>
       </c>
       <c r="G27">
-        <v>0.67356490422334503</v>
+        <v>0.88589441501744104</v>
       </c>
       <c r="H27">
-        <v>7807561.2840809496</v>
+        <v>8654711.2063897494</v>
       </c>
       <c r="I27">
-        <v>4084231.27450054</v>
+        <v>2646393.64089821</v>
       </c>
       <c r="J27">
-        <v>1.9803717421687701</v>
+        <v>3.3811850475266501</v>
       </c>
     </row>
     <row r="28">
@@ -1466,29 +1583,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.91000000000000003</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F28">
-        <v>4227687.50160533</v>
+        <v>2734204.1936147502</v>
       </c>
       <c r="G28">
-        <v>0.638329896169754</v>
+        <v>0.87411683695970599</v>
       </c>
       <c r="H28">
-        <v>8221264.6184787704</v>
+        <v>8927816.55027573</v>
       </c>
       <c r="I28">
-        <v>4375044.3144734399</v>
+        <v>2824200.8084007199</v>
       </c>
       <c r="J28">
-        <v>1.9446244821446701</v>
+        <v>3.2652340198749799</v>
       </c>
     </row>
     <row r="29">
@@ -1496,29 +1613,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.92000000000000004</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F29">
-        <v>4524764.49112608</v>
+        <v>2915300.0825846498</v>
       </c>
       <c r="G29">
-        <v>0.60058601946577395</v>
+        <v>0.86154794132845403</v>
       </c>
       <c r="H29">
-        <v>8702042.1564794406</v>
+        <v>9218464.9189364407</v>
       </c>
       <c r="I29">
-        <v>4680825.9990615901</v>
+        <v>3008630.5362473801</v>
       </c>
       <c r="J29">
-        <v>1.9232033343493999</v>
+        <v>3.1620981229361198</v>
       </c>
     </row>
     <row r="30">
@@ -1526,29 +1643,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.93000000000000005</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F30">
-        <v>4841283.7814139696</v>
+        <v>3103092.5545824901</v>
       </c>
       <c r="G30">
-        <v>0.56020413835044403</v>
+        <v>0.84815825491146601</v>
       </c>
       <c r="H30">
-        <v>9276501.6075391304</v>
+        <v>9528956.6380708907</v>
       </c>
       <c r="I30">
-        <v>5015077.4198809899</v>
+        <v>3199862.1433490999</v>
       </c>
       <c r="J30">
-        <v>1.9161243228815199</v>
+        <v>3.07079356173216</v>
       </c>
     </row>
     <row r="31">
@@ -1556,29 +1673,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93999999999999995</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F31">
-        <v>5198947.6074136999</v>
+        <v>3297813.2832794199</v>
       </c>
       <c r="G31">
-        <v>0.51693864200548101</v>
+        <v>0.83391750645104701</v>
       </c>
       <c r="H31">
-        <v>9986738.9721488208</v>
+        <v>9862066.8746351991</v>
       </c>
       <c r="I31">
-        <v>5415715.6575817801</v>
+        <v>3398205.1842759298</v>
       </c>
       <c r="J31">
-        <v>1.9209154864164699</v>
+        <v>2.9904867339330199</v>
       </c>
     </row>
     <row r="32">
@@ -1586,29 +1703,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.94999999999999996</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F32">
-        <v>5658671.3309530802</v>
+        <v>3499865.93046562</v>
       </c>
       <c r="G32">
-        <v>0.47021680575633601</v>
+        <v>0.81879404703991199</v>
       </c>
       <c r="H32">
-        <v>10900943.635062199</v>
+        <v>10221170.3018774</v>
       </c>
       <c r="I32">
-        <v>5991901.5819504503</v>
+        <v>3604199.1988637801</v>
       </c>
       <c r="J32">
-        <v>1.92641399323438</v>
+        <v>2.9204462413557599</v>
       </c>
     </row>
     <row r="33">
@@ -1616,29 +1733,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.95999999999999996</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F33">
-        <v>6397839.6138640698</v>
+        <v>3709952.4905043398</v>
       </c>
       <c r="G33">
-        <v>0.418524164887912</v>
+        <v>0.80275382658886996</v>
       </c>
       <c r="H33">
-        <v>12128204.148340199</v>
+        <v>10610403.8961723</v>
       </c>
       <c r="I33">
-        <v>6989239.9648504797</v>
+        <v>3818777.2434478402</v>
       </c>
       <c r="J33">
-        <v>1.89567180178422</v>
+        <v>2.8599837661883099</v>
       </c>
     </row>
     <row r="34">
@@ -1646,29 +1763,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.96999999999999997</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F34">
-        <v>7683227.6368727097</v>
+        <v>3929280.8877697</v>
       </c>
       <c r="G34">
-        <v>0.358227401580819</v>
+        <v>0.78575864251090899</v>
       </c>
       <c r="H34">
-        <v>13841192.209503399</v>
+        <v>11034880.5619676</v>
       </c>
       <c r="I34">
-        <v>8580830.6525766999</v>
+        <v>4043535.8142910199</v>
       </c>
       <c r="J34">
-        <v>1.8014814689438401</v>
+        <v>2.8083715257707298</v>
       </c>
     </row>
     <row r="35">
@@ -1676,29 +1793,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.97999999999999998</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F35">
-        <v>9567504.2910860702</v>
+        <v>4159909.21238739</v>
       </c>
       <c r="G35">
-        <v>0.28419985102615303</v>
+        <v>0.76776318713115099</v>
       </c>
       <c r="H35">
-        <v>16471372.9879667</v>
+        <v>11500970.211812699</v>
       </c>
       <c r="I35">
-        <v>10703566.2346169</v>
+        <v>4281185.6154048303</v>
       </c>
       <c r="J35">
-        <v>1.7215955683775299</v>
+        <v>2.7647166379413002</v>
       </c>
     </row>
     <row r="36">
@@ -1706,29 +1823,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.98999999999999999</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F36">
-        <v>12040079.987216501</v>
+        <v>4405324.4203352304</v>
       </c>
       <c r="G36">
-        <v>0.191859281373915</v>
+        <v>0.74871008898813696</v>
       </c>
       <c r="H36">
-        <v>22239179.741316602</v>
+        <v>12016669.1115561</v>
       </c>
       <c r="I36">
-        <v>12255175.2091274</v>
+        <v>4536316.5265500797</v>
       </c>
       <c r="J36">
-        <v>1.84709568083676</v>
+        <v>2.7277603111558499</v>
       </c>
     </row>
     <row r="37">
@@ -1736,29 +1853,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.99099999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F37">
-        <v>12493855.274744401</v>
+        <v>4671432.8185447399</v>
       </c>
       <c r="G37">
-        <v>0.181286638245507</v>
+        <v>0.72852154970193195</v>
       </c>
       <c r="H37">
-        <v>23348513.578226499</v>
+        <v>12592080.8488643</v>
       </c>
       <c r="I37">
-        <v>12797956.9669965</v>
+        <v>4816722.2521519298</v>
       </c>
       <c r="J37">
-        <v>1.8687997471384299</v>
+        <v>2.6955500245825998</v>
       </c>
     </row>
     <row r="38">
@@ -1766,29 +1883,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99199999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F38">
-        <v>13146713.002215501</v>
+        <v>4968293.00808693</v>
       </c>
       <c r="G38">
-        <v>0.170245732711655</v>
+        <v>0.70708508559076</v>
       </c>
       <c r="H38">
-        <v>24667333.1546303</v>
+        <v>13240027.3985903</v>
       </c>
       <c r="I38">
-        <v>13619264.693933001</v>
+        <v>5135750.2031135596</v>
       </c>
       <c r="J38">
-        <v>1.8763118317463301</v>
+        <v>2.6649047020856802</v>
       </c>
     </row>
     <row r="39">
@@ -1796,29 +1913,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99299999999999999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F39">
-        <v>14169321.8813294</v>
+        <v>5313227.2110517798</v>
       </c>
       <c r="G39">
-        <v>0.15849627806713601</v>
+        <v>0.68422881131341196</v>
       </c>
       <c r="H39">
-        <v>26245628.649015602</v>
+        <v>13976779.870906301</v>
       </c>
       <c r="I39">
-        <v>14866872.3430332</v>
+        <v>5516588.2156395297</v>
       </c>
       <c r="J39">
-        <v>1.8522854423682</v>
+        <v>2.6305631804779499</v>
       </c>
     </row>
     <row r="40">
@@ -1826,29 +1943,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99399999999999999</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F40">
-        <v>15627343.535245899</v>
+        <v>5736574.5621829499</v>
       </c>
       <c r="G40">
-        <v>0.145670501769672</v>
+        <v>0.65967764578838395</v>
       </c>
       <c r="H40">
-        <v>28142088.033346001</v>
+        <v>14822799.036433</v>
       </c>
       <c r="I40">
-        <v>16477390.2428647</v>
+        <v>6000288.2063760199</v>
       </c>
       <c r="J40">
-        <v>1.8008235353548301</v>
+        <v>2.5839111608779399</v>
       </c>
     </row>
     <row r="41">
@@ -1856,29 +1973,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.995</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F41">
-        <v>17348793.474171001</v>
+        <v>6292119.05534139</v>
       </c>
       <c r="G41">
-        <v>0.131455318081758</v>
+        <v>0.63297380943261194</v>
       </c>
       <c r="H41">
-        <v>30475027.591442298</v>
+        <v>15803078.0175505</v>
       </c>
       <c r="I41">
-        <v>18203444.717342701</v>
+        <v>6647072.7221501097</v>
       </c>
       <c r="J41">
-        <v>1.75660789534521</v>
+        <v>2.5115669106952501</v>
       </c>
     </row>
     <row r="42">
@@ -1886,29 +2003,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.996</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F42">
-        <v>19020470.007883798</v>
+        <v>7034795.6969649298</v>
       </c>
       <c r="G42">
-        <v>0.115751052624923</v>
+        <v>0.60339150669778796</v>
       </c>
       <c r="H42">
-        <v>33542923.309967201</v>
+        <v>16947578.679475501</v>
       </c>
       <c r="I42">
-        <v>19764693.206124902</v>
+        <v>7488665.7587957298</v>
       </c>
       <c r="J42">
-        <v>1.76351705799404</v>
+        <v>2.4091074438433702</v>
       </c>
     </row>
     <row r="43">
@@ -1916,29 +2033,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.997</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F43">
-        <v>20546657.902876299</v>
+        <v>7975446.8686569799</v>
       </c>
       <c r="G43">
-        <v>0.098699884914550395</v>
+        <v>0.57006375675180199</v>
       </c>
       <c r="H43">
-        <v>38135666.677914597</v>
+        <v>18298851.953858402</v>
       </c>
       <c r="I43">
-        <v>22353784.289812598</v>
+        <v>8526163.1751717497</v>
       </c>
       <c r="J43">
-        <v>1.85605205762325</v>
+        <v>2.2943983271673098</v>
       </c>
     </row>
     <row r="44">
@@ -1946,29 +2063,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.998</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F44">
-        <v>25526112.332035098</v>
+        <v>9107433.16328579</v>
       </c>
       <c r="G44">
-        <v>0.079415086465517898</v>
+        <v>0.53211870172420295</v>
       </c>
       <c r="H44">
-        <v>46026607.871965498</v>
+        <v>19927633.416972801</v>
       </c>
       <c r="I44">
-        <v>29341085.963971499</v>
+        <v>9746834.5095123406</v>
       </c>
       <c r="J44">
-        <v>1.8031185976644999</v>
+        <v>2.1880625484363501</v>
       </c>
     </row>
     <row r="45">
@@ -1976,29 +2093,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.999</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F45">
-        <v>35226483.860996298</v>
+        <v>10414826.488235001</v>
       </c>
       <c r="G45">
-        <v>0.054102283865521801</v>
+        <v>0.48874113971772698</v>
       </c>
       <c r="H45">
-        <v>62712129.779959597</v>
+        <v>21963793.1984649</v>
       </c>
       <c r="I45">
-        <v>36548111.286222599</v>
+        <v>11151702.766884699</v>
       </c>
       <c r="J45">
-        <v>1.7802551633430601</v>
+        <v>2.1088966986897102</v>
       </c>
     </row>
     <row r="46">
@@ -2006,29 +2123,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.99909999999999999</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F46">
-        <v>37816124.706218101</v>
+        <v>11940062.295092201</v>
       </c>
       <c r="G46">
-        <v>0.050949247445783399</v>
+        <v>0.43911131602714998</v>
       </c>
       <c r="H46">
-        <v>65619242.945929997</v>
+        <v>24666815.806359898</v>
       </c>
       <c r="I46">
-        <v>38860944.040244699</v>
+        <v>12960783.3526963</v>
       </c>
       <c r="J46">
-        <v>1.7352185993595499</v>
+        <v>2.0658866927770498</v>
       </c>
     </row>
     <row r="47">
@@ -2036,29 +2153,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99919999999999998</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F47">
-        <v>39753688.969085999</v>
+        <v>14235829.318571599</v>
       </c>
       <c r="G47">
-        <v>0.047596680991535703</v>
+        <v>0.38143031375042102</v>
       </c>
       <c r="H47">
-        <v>68964030.309140205</v>
+        <v>28568826.624247801</v>
       </c>
       <c r="I47">
-        <v>40477977.813790403</v>
+        <v>16425603.523648201</v>
       </c>
       <c r="J47">
-        <v>1.7347831634636299</v>
+        <v>2.0068255937135802</v>
       </c>
     </row>
     <row r="48">
@@ -2066,29 +2183,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99929999999999997</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F48">
-        <v>41623190.063134402</v>
+        <v>19228021.8659136</v>
       </c>
       <c r="G48">
-        <v>0.044104611668315898</v>
+        <v>0.30832938701923601</v>
       </c>
       <c r="H48">
-        <v>73033466.379903793</v>
+        <v>34640438.174547501</v>
       </c>
       <c r="I48">
-        <v>43319231.768716</v>
+        <v>23150017.619268902</v>
       </c>
       <c r="J48">
-        <v>1.75463404580778</v>
+        <v>1.80156016131624</v>
       </c>
     </row>
     <row r="49">
@@ -2096,29 +2213,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99939999999999996</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F49">
-        <v>45015273.474295899</v>
+        <v>28833145.7180967</v>
       </c>
       <c r="G49">
-        <v>0.040367424967417</v>
+        <v>0.20530195552331601</v>
       </c>
       <c r="H49">
-        <v>77985838.815100893</v>
+        <v>46130858.7298261</v>
       </c>
       <c r="I49">
-        <v>47797718.468696102</v>
+        <v>29811590.001715701</v>
       </c>
       <c r="J49">
-        <v>1.73243063511836</v>
+        <v>1.59992458612911</v>
       </c>
     </row>
     <row r="50">
@@ -2126,29 +2243,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99950000000000006</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F50">
-        <v>51478306.082230702</v>
+        <v>30759443.7047273</v>
       </c>
       <c r="G50">
-        <v>0.036243875437539902</v>
+        <v>0.19203452913427599</v>
       </c>
       <c r="H50">
-        <v>84023462.8843804</v>
+        <v>47944110.810727298</v>
       </c>
       <c r="I50">
-        <v>54472912.891179197</v>
+        <v>31465913.223072201</v>
       </c>
       <c r="J50">
-        <v>1.6322111055900399</v>
+        <v>1.55867938545842</v>
       </c>
     </row>
     <row r="51">
@@ -2156,29 +2273,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99960000000000004</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F51">
-        <v>56546599.552227996</v>
+        <v>31965821.5665657</v>
       </c>
       <c r="G51">
-        <v>0.031544451248693699</v>
+        <v>0.17803085850057301</v>
       </c>
       <c r="H51">
-        <v>91411100.382678702</v>
+        <v>50003885.509184197</v>
       </c>
       <c r="I51">
-        <v>66234455.136075601</v>
+        <v>32311994.260115501</v>
       </c>
       <c r="J51">
-        <v>1.6165622885643001</v>
+        <v>1.56429220519348</v>
       </c>
     </row>
     <row r="52">
@@ -2186,29 +2303,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99970000000000003</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F52">
-        <v>75256480.084103405</v>
+        <v>32793532.362020802</v>
       </c>
       <c r="G52">
-        <v>0.0258303488796192</v>
+        <v>0.16365064579455901</v>
       </c>
       <c r="H52">
-        <v>99803315.464888901</v>
+        <v>52531298.544765398</v>
       </c>
       <c r="I52">
-        <v>82610684.147940293</v>
+        <v>33955984.060462601</v>
       </c>
       <c r="J52">
-        <v>1.3261757041168201</v>
+        <v>1.60187984523447</v>
       </c>
     </row>
     <row r="53">
@@ -2216,29 +2333,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99980000000000002</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F53">
-        <v>90225450.260820597</v>
+        <v>35606940.883363903</v>
       </c>
       <c r="G53">
-        <v>0.018703455406572801</v>
+        <v>0.148538787656041</v>
       </c>
       <c r="H53">
-        <v>108399631.123363</v>
+        <v>55627184.292149201</v>
       </c>
       <c r="I53">
-        <v>98548924.149736598</v>
+        <v>38023887.465372398</v>
       </c>
       <c r="J53">
-        <v>1.2014307582838899</v>
+        <v>1.56225676545381</v>
       </c>
     </row>
     <row r="54">
@@ -2246,29 +2363,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99990000000000001</v>
+        <v>0.995</v>
       </c>
       <c r="F54">
-        <v>107378722.053771</v>
+        <v>40345556.3211198</v>
       </c>
       <c r="G54">
-        <v>0.0102015565112589</v>
+        <v>0.131616539364591</v>
       </c>
       <c r="H54">
-        <v>118250338.09699</v>
+        <v>59147843.657504603</v>
       </c>
       <c r="I54">
-        <v>108333703.07143299</v>
+        <v>41181077.210223503</v>
       </c>
       <c r="J54">
-        <v>1.1012455338942799</v>
+        <v>1.4660311828825201</v>
       </c>
     </row>
     <row r="55">
@@ -2276,29 +2393,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990999999999997</v>
+        <v>0.996</v>
       </c>
       <c r="F55">
-        <v>109297396.930152</v>
+        <v>41887822.706097901</v>
       </c>
       <c r="G55">
-        <v>0.0092669525078049597</v>
+        <v>0.11328920726064901</v>
       </c>
       <c r="H55">
-        <v>119352186.433158</v>
+        <v>63639535.269324899</v>
       </c>
       <c r="I55">
-        <v>110279761.769467</v>
+        <v>42588796.743250497</v>
       </c>
       <c r="J55">
-        <v>1.0919947755885899</v>
+        <v>1.5192848698736601</v>
       </c>
     </row>
     <row r="56">
@@ -2306,29 +2423,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99992000000000003</v>
+        <v>0.997</v>
       </c>
       <c r="F56">
-        <v>111272150.702814</v>
+        <v>43289770.780403502</v>
       </c>
       <c r="G56">
-        <v>0.0083155596916493994</v>
+        <v>0.0943353800492744</v>
       </c>
       <c r="H56">
-        <v>120486239.516112</v>
+        <v>70656448.111349598</v>
       </c>
       <c r="I56">
-        <v>112286204.477366</v>
+        <v>49450151.513837598</v>
       </c>
       <c r="J56">
-        <v>1.0828067827852801</v>
+        <v>1.6321742258643399</v>
       </c>
     </row>
     <row r="57">
@@ -2336,29 +2453,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="F57">
-        <v>113311996.024268</v>
+        <v>54323404.512641497</v>
       </c>
       <c r="G57">
-        <v>0.0073468571248299199</v>
+        <v>0.072327957932609696</v>
       </c>
       <c r="H57">
-        <v>121657673.09308399</v>
+        <v>81259596.410105705</v>
       </c>
       <c r="I57">
-        <v>114363435.166931</v>
+        <v>58876078.014746301</v>
       </c>
       <c r="J57">
-        <v>1.0736521936038299</v>
+        <v>1.49584874400123</v>
       </c>
     </row>
     <row r="58">
@@ -2366,29 +2483,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99994000000000005</v>
+        <v>0.999</v>
       </c>
       <c r="F58">
-        <v>115428934.534437</v>
+        <v>72733183.333655298</v>
       </c>
       <c r="G58">
-        <v>0.0063602341134733203</v>
+        <v>0.046125597337584499</v>
       </c>
       <c r="H58">
-        <v>122873379.414103</v>
+        <v>103643114.805465</v>
       </c>
       <c r="I58">
-        <v>116525606.407529</v>
+        <v>73912304.895321503</v>
       </c>
       <c r="J58">
-        <v>1.0644937502862</v>
+        <v>1.4249770194989799</v>
       </c>
     </row>
     <row r="59">
@@ -2396,29 +2513,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99995000000000001</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="F59">
-        <v>117639640.34375501</v>
+        <v>75145200.2793677</v>
       </c>
       <c r="G59">
-        <v>0.00535495786825193</v>
+        <v>0.042836185184839899</v>
       </c>
       <c r="H59">
-        <v>124142934.01542699</v>
+        <v>106946538.128814</v>
       </c>
       <c r="I59">
-        <v>118792957.161301</v>
+        <v>76499995.668700606</v>
       </c>
       <c r="J59">
-        <v>1.0552814820979399</v>
+        <v>1.42319852407364</v>
       </c>
     </row>
     <row r="60">
@@ -2426,29 +2543,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995999999999996</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="F60">
-        <v>119968651.02567799</v>
+        <v>77924043.965290397</v>
       </c>
       <c r="G60">
-        <v>0.0043301209966472003</v>
+        <v>0.039431609778973198</v>
       </c>
       <c r="H60">
-        <v>125480428.22894999</v>
+        <v>110752355.93632799</v>
       </c>
       <c r="I60">
-        <v>121196537.48161399</v>
+        <v>79507550.031718999</v>
       </c>
       <c r="J60">
-        <v>1.0459434790351401</v>
+        <v>1.4212860408741099</v>
       </c>
     </row>
     <row r="61">
@@ -2456,29 +2573,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99997000000000003</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="F61">
-        <v>122455198.184728</v>
+        <v>81183130.673257396</v>
       </c>
       <c r="G61">
-        <v>0.0032845482346750099</v>
+        <v>0.035893185403225697</v>
       </c>
       <c r="H61">
-        <v>126908391.81138299</v>
+        <v>115215899.636985</v>
       </c>
       <c r="I61">
-        <v>123789369.948965</v>
+        <v>83075012.586896494</v>
       </c>
       <c r="J61">
-        <v>1.03636590110236</v>
+        <v>1.41920986147605</v>
       </c>
     </row>
     <row r="62">
@@ -2486,29 +2603,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997999999999998</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="F62">
-        <v>125170811.890313</v>
+        <v>85094445.120257899</v>
       </c>
       <c r="G62">
-        <v>0.00221660688807178</v>
+        <v>0.0321959937599701</v>
       </c>
       <c r="H62">
-        <v>128467902.742603</v>
+        <v>120572714.14533301</v>
       </c>
       <c r="I62">
-        <v>126680824.90415201</v>
+        <v>87421647.430997699</v>
       </c>
       <c r="J62">
-        <v>1.02634073233606</v>
+        <v>1.41692814348734</v>
       </c>
     </row>
     <row r="63">
@@ -2516,29 +2633,419 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="D63"/>
       <c r="E63">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F63">
+        <v>89935540.363378897</v>
+      </c>
+      <c r="G63">
+        <v>0.028305358366042799</v>
+      </c>
+      <c r="H63">
+        <v>127202927.488198</v>
+      </c>
+      <c r="I63">
+        <v>92917139.228949696</v>
+      </c>
+      <c r="J63">
+        <v>1.414378864843</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64"/>
+      <c r="E64">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F64">
+        <v>96194040.575407594</v>
+      </c>
+      <c r="G64">
+        <v>0.0241701501972429</v>
+      </c>
+      <c r="H64">
+        <v>135774374.55300799</v>
+      </c>
+      <c r="I64">
+        <v>100253840.50590201</v>
+      </c>
+      <c r="J64">
+        <v>1.4114634725897801</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" t="s">
+        <v>216</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F65">
+        <v>104839226.862101</v>
+      </c>
+      <c r="G65">
+        <v>0.019708427595210101</v>
+      </c>
+      <c r="H65">
+        <v>147614552.56872299</v>
+      </c>
+      <c r="I65">
+        <v>110957974.156718</v>
+      </c>
+      <c r="J65">
+        <v>1.40800878628079</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F66">
+        <v>118221751.541372</v>
+      </c>
+      <c r="G66">
+        <v>0.0147703254868813</v>
+      </c>
+      <c r="H66">
+        <v>165942841.77472499</v>
+      </c>
+      <c r="I66">
+        <v>129569420.890918</v>
+      </c>
+      <c r="J66">
+        <v>1.4036574455306801</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F67">
+        <v>144780051.51012599</v>
+      </c>
+      <c r="G67">
+        <v>0.0090039347850044901</v>
+      </c>
+      <c r="H67">
+        <v>202316262.65853301</v>
+      </c>
+      <c r="I67">
+        <v>146974886.11218801</v>
+      </c>
+      <c r="J67">
+        <v>1.3974042732287699</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F68">
+        <v>149269816.11565399</v>
+      </c>
+      <c r="G68">
+        <v>0.0083498339864863103</v>
+      </c>
+      <c r="H68">
+        <v>208465304.496986</v>
+      </c>
+      <c r="I68">
+        <v>151791652.62164101</v>
+      </c>
+      <c r="J68">
+        <v>1.3965670349286701</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F69">
+        <v>154442397.53035599</v>
+      </c>
+      <c r="G69">
+        <v>0.0076742965268931599</v>
+      </c>
+      <c r="H69">
+        <v>215549510.981365</v>
+      </c>
+      <c r="I69">
+        <v>157389959.529199</v>
+      </c>
+      <c r="J69">
+        <v>1.3956628129849999</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F70">
+        <v>160508910.52643499</v>
+      </c>
+      <c r="G70">
+        <v>0.0069738442188072196</v>
+      </c>
+      <c r="H70">
+        <v>223858018.33172601</v>
+      </c>
+      <c r="I70">
+        <v>164030487.963442</v>
+      </c>
+      <c r="J70">
+        <v>1.39467657962115</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F71">
+        <v>167789490.04161501</v>
+      </c>
+      <c r="G71">
+        <v>0.0062438387328609801</v>
+      </c>
+      <c r="H71">
+        <v>233829273.39305201</v>
+      </c>
+      <c r="I71">
+        <v>172121379.41053101</v>
+      </c>
+      <c r="J71">
+        <v>1.39358712714997</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
+        <v>223</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F72">
+        <v>176800777.50931901</v>
+      </c>
+      <c r="G72">
+        <v>0.0054778253363287101</v>
+      </c>
+      <c r="H72">
+        <v>246170852.189639</v>
+      </c>
+      <c r="I72">
+        <v>182350770.46368101</v>
+      </c>
+      <c r="J72">
+        <v>1.3923629503080901</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F73">
+        <v>188450443.89561501</v>
+      </c>
+      <c r="G73">
+        <v>0.0046662867957941801</v>
+      </c>
+      <c r="H73">
+        <v>262125872.62103799</v>
+      </c>
+      <c r="I73">
+        <v>196007416.52212</v>
+      </c>
+      <c r="J73">
+        <v>1.3909538614100201</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F74">
+        <v>204542723.62318999</v>
+      </c>
+      <c r="G74">
+        <v>0.0037939703677702299</v>
+      </c>
+      <c r="H74">
+        <v>284165357.98718399</v>
+      </c>
+      <c r="I74">
+        <v>215932251.828024</v>
+      </c>
+      <c r="J74">
+        <v>1.3892714096770999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F75">
+        <v>229453156.257135</v>
+      </c>
+      <c r="G75">
+        <v>0.0028329799422337201</v>
+      </c>
+      <c r="H75">
+        <v>318281911.06694603</v>
+      </c>
+      <c r="I75">
+        <v>250575878.58760601</v>
+      </c>
+      <c r="J75">
+        <v>1.38713241630141</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76" t="s">
+        <v>227</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F63">
-        <v>128282693.297392</v>
-      </c>
-      <c r="G63">
-        <v>0.0011237207154446501</v>
-      </c>
-      <c r="H63">
-        <v>130254980.581036</v>
-      </c>
-      <c r="I63">
-        <v>130254980.581035</v>
-      </c>
-      <c r="J63">
-        <v>1.0153745390975899</v>
+      <c r="F76">
+        <v>278889175.10190803</v>
+      </c>
+      <c r="G76">
+        <v>0.00171781063263855</v>
+      </c>
+      <c r="H76">
+        <v>385987943.545542</v>
+      </c>
+      <c r="I76">
+        <v>385987943.54553998</v>
+      </c>
+      <c r="J76">
+        <v>1.3840190943391699</v>
       </c>
     </row>
   </sheetData>
